--- a/04_Output/k600/3.xlsx
+++ b/04_Output/k600/3.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,27 +355,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>excel</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>stage</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>k600</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>date.01_Raw_data.GD.3.GB_11012023.csv</t>
+        </is>
+      </c>
+      <c r="B2" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>date.01_Raw_data.GD.3.GB_11012023.csv</t>
+        </is>
+      </c>
+      <c r="B3" s="2">
+        <v>45231</v>
       </c>
     </row>
   </sheetData>
